--- a/dataanalysis/data/predictions/1200/07181151_1156.xlsx
+++ b/dataanalysis/data/predictions/1200/07181151_1156.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="137">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-18</t>
   </si>
   <si>
@@ -422,12 +425,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -785,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,19 +870,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>2.21</v>
@@ -903,7 +903,7 @@
         <v>60292.38</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -923,8 +923,23 @@
       <c r="P2">
         <v>0.38</v>
       </c>
+      <c r="Q2">
+        <v>-3.16</v>
+      </c>
+      <c r="R2">
+        <v>5.1</v>
+      </c>
+      <c r="S2">
+        <v>0.2</v>
+      </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -932,22 +947,25 @@
       <c r="Z2">
         <v>3.47101616859436</v>
       </c>
-      <c r="AA2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.54</v>
@@ -965,7 +983,7 @@
         <v>47762.83</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -985,8 +1003,23 @@
       <c r="P3">
         <v>-0.55</v>
       </c>
+      <c r="Q3">
+        <v>3.93</v>
+      </c>
+      <c r="R3">
+        <v>23.22</v>
+      </c>
+      <c r="S3">
+        <v>4.36</v>
+      </c>
       <c r="V3" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -994,22 +1027,25 @@
       <c r="Z3">
         <v>1.032554388046265</v>
       </c>
-      <c r="AA3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1.82</v>
@@ -1027,7 +1063,7 @@
         <v>71156.46000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1047,8 +1083,23 @@
       <c r="P4">
         <v>-0.63</v>
       </c>
+      <c r="Q4">
+        <v>-3.04</v>
+      </c>
+      <c r="R4">
+        <v>43.46</v>
+      </c>
+      <c r="S4">
+        <v>3.55</v>
+      </c>
       <c r="V4" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1056,22 +1107,25 @@
       <c r="Z4">
         <v>2.845824241638184</v>
       </c>
-      <c r="AA4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>4.13</v>
@@ -1089,7 +1143,7 @@
         <v>140621.58</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1109,8 +1163,23 @@
       <c r="P5">
         <v>-0.84</v>
       </c>
+      <c r="Q5">
+        <v>4.3</v>
+      </c>
+      <c r="R5">
+        <v>6.88</v>
+      </c>
+      <c r="S5">
+        <v>4.88</v>
+      </c>
       <c r="V5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1118,22 +1187,25 @@
       <c r="Z5">
         <v>2.973616123199463</v>
       </c>
-      <c r="AA5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300127</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>2.95</v>
@@ -1151,7 +1223,7 @@
         <v>54978.62</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1171,8 +1243,23 @@
       <c r="P6">
         <v>0.42</v>
       </c>
+      <c r="Q6">
+        <v>0.03</v>
+      </c>
+      <c r="R6">
+        <v>30.46</v>
+      </c>
+      <c r="S6">
+        <v>1.36</v>
+      </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1180,22 +1267,25 @@
       <c r="Z6">
         <v>1.326680064201355</v>
       </c>
-      <c r="AA6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300130</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0.15</v>
@@ -1213,7 +1303,7 @@
         <v>80349.59</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>24</v>
@@ -1233,8 +1323,23 @@
       <c r="P7">
         <v>0.14</v>
       </c>
+      <c r="Q7">
+        <v>-3.64</v>
+      </c>
+      <c r="R7">
+        <v>32.64</v>
+      </c>
+      <c r="S7">
+        <v>-0.09</v>
+      </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1242,22 +1347,25 @@
       <c r="Z7">
         <v>5.017984390258789</v>
       </c>
-      <c r="AA7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300180</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-2.77</v>
@@ -1275,7 +1383,7 @@
         <v>92482.03999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>23</v>
@@ -1295,8 +1403,23 @@
       <c r="P8">
         <v>-1.13</v>
       </c>
+      <c r="Q8">
+        <v>-0.76</v>
+      </c>
+      <c r="R8">
+        <v>9.18</v>
+      </c>
+      <c r="S8">
+        <v>0.44</v>
+      </c>
       <c r="V8" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1304,22 +1427,25 @@
       <c r="Z8">
         <v>4.460049152374268</v>
       </c>
-      <c r="AA8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300195</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-2.85</v>
@@ -1337,7 +1463,7 @@
         <v>26720.43</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1357,8 +1483,23 @@
       <c r="P9">
         <v>-0.77</v>
       </c>
+      <c r="Q9">
+        <v>2.33</v>
+      </c>
+      <c r="R9">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="S9">
+        <v>2.08</v>
+      </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1366,22 +1507,25 @@
       <c r="Z9">
         <v>3.57891321182251</v>
       </c>
-      <c r="AA9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300199</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1.53</v>
@@ -1399,7 +1543,7 @@
         <v>95566.00999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>13</v>
@@ -1419,8 +1563,23 @@
       <c r="P10">
         <v>-0.63</v>
       </c>
+      <c r="Q10">
+        <v>-2.49</v>
+      </c>
+      <c r="R10">
+        <v>19.24</v>
+      </c>
+      <c r="S10">
+        <v>-0.41</v>
+      </c>
       <c r="V10" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1428,22 +1587,25 @@
       <c r="Z10">
         <v>1.321444869041443</v>
       </c>
-      <c r="AA10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300226</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-3.95</v>
@@ -1461,7 +1623,7 @@
         <v>121760.86</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1481,8 +1643,23 @@
       <c r="P11">
         <v>-0.93</v>
       </c>
+      <c r="Q11">
+        <v>-1.21</v>
+      </c>
+      <c r="R11">
+        <v>29.2</v>
+      </c>
+      <c r="S11">
+        <v>0.1</v>
+      </c>
       <c r="V11" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1490,22 +1667,25 @@
       <c r="Z11">
         <v>1.050927758216858</v>
       </c>
-      <c r="AA11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>20.03</v>
@@ -1523,7 +1703,7 @@
         <v>71744.19</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1543,8 +1723,23 @@
       <c r="P12">
         <v>4.03</v>
       </c>
+      <c r="Q12">
+        <v>-5.91</v>
+      </c>
+      <c r="R12">
+        <v>8.35</v>
+      </c>
+      <c r="S12">
+        <v>-3.24</v>
+      </c>
       <c r="V12" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1552,22 +1747,25 @@
       <c r="Z12">
         <v>15.28809833526611</v>
       </c>
-      <c r="AA12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300348</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1.53</v>
@@ -1585,7 +1783,7 @@
         <v>147003.83</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1605,8 +1803,23 @@
       <c r="P13">
         <v>1.26</v>
       </c>
+      <c r="Q13">
+        <v>-3.11</v>
+      </c>
+      <c r="R13">
+        <v>18.82</v>
+      </c>
+      <c r="S13">
+        <v>-2.28</v>
+      </c>
       <c r="V13" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1614,22 +1827,25 @@
       <c r="Z13">
         <v>11.01802635192871</v>
       </c>
-      <c r="AA13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300363</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-0.8</v>
@@ -1647,7 +1863,7 @@
         <v>32728.43</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1667,8 +1883,23 @@
       <c r="P14">
         <v>-0.12</v>
       </c>
+      <c r="Q14">
+        <v>0.2</v>
+      </c>
+      <c r="R14">
+        <v>20.1</v>
+      </c>
+      <c r="S14">
+        <v>0.95</v>
+      </c>
       <c r="V14" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1676,22 +1907,25 @@
       <c r="Z14">
         <v>3.243273735046387</v>
       </c>
-      <c r="AA14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300414</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0.68</v>
@@ -1709,7 +1943,7 @@
         <v>37760.31</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1729,8 +1963,23 @@
       <c r="P15">
         <v>-0.39</v>
       </c>
+      <c r="Q15">
+        <v>2.4</v>
+      </c>
+      <c r="R15">
+        <v>13.98</v>
+      </c>
+      <c r="S15">
+        <v>5.27</v>
+      </c>
       <c r="V15" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1738,22 +1987,25 @@
       <c r="Z15">
         <v>0.4684686064720154</v>
       </c>
-      <c r="AA15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300434</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-2.5</v>
@@ -1771,7 +2023,7 @@
         <v>19243</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1791,8 +2043,23 @@
       <c r="P16">
         <v>-0.39</v>
       </c>
+      <c r="Q16">
+        <v>0.75</v>
+      </c>
+      <c r="R16">
+        <v>10.91</v>
+      </c>
+      <c r="S16">
+        <v>3.71</v>
+      </c>
       <c r="V16" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1800,22 +2067,25 @@
       <c r="Z16">
         <v>0.9607219099998474</v>
       </c>
-      <c r="AA16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300436</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-5.74</v>
@@ -1833,7 +2103,7 @@
         <v>86937.16</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17">
         <v>12</v>
@@ -1853,8 +2123,23 @@
       <c r="P17">
         <v>-0.45</v>
       </c>
+      <c r="Q17">
+        <v>4.66</v>
+      </c>
+      <c r="R17">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="S17">
+        <v>13.5</v>
+      </c>
       <c r="V17" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1862,22 +2147,25 @@
       <c r="Z17">
         <v>4.718778133392334</v>
       </c>
-      <c r="AA17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300469</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.11</v>
@@ -1895,7 +2183,7 @@
         <v>63378.76</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -1915,8 +2203,23 @@
       <c r="P18">
         <v>-0.06</v>
       </c>
+      <c r="Q18">
+        <v>-0.22</v>
+      </c>
+      <c r="R18">
+        <v>47.1</v>
+      </c>
+      <c r="S18">
+        <v>2.04</v>
+      </c>
       <c r="V18" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1924,22 +2227,25 @@
       <c r="Z18">
         <v>7.167460441589355</v>
       </c>
-      <c r="AA18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>1.47</v>
@@ -1957,7 +2263,7 @@
         <v>741228.9</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -1977,8 +2283,23 @@
       <c r="P19">
         <v>0.17</v>
       </c>
+      <c r="Q19">
+        <v>-2.23</v>
+      </c>
+      <c r="R19">
+        <v>186.6</v>
+      </c>
+      <c r="S19">
+        <v>0.22</v>
+      </c>
       <c r="V19" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1986,22 +2307,25 @@
       <c r="Z19">
         <v>1.176661968231201</v>
       </c>
-      <c r="AA19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300522</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-3.49</v>
@@ -2019,7 +2343,7 @@
         <v>42306.9</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2039,8 +2363,23 @@
       <c r="P20">
         <v>-1.08</v>
       </c>
+      <c r="Q20">
+        <v>-0.06</v>
+      </c>
+      <c r="R20">
+        <v>17.21</v>
+      </c>
+      <c r="S20">
+        <v>5.52</v>
+      </c>
       <c r="V20" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2048,22 +2387,25 @@
       <c r="Z20">
         <v>2.72027325630188</v>
       </c>
-      <c r="AA20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300527</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0.09</v>
@@ -2081,7 +2423,7 @@
         <v>41882.75</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21">
         <v>14</v>
@@ -2101,8 +2443,23 @@
       <c r="P21">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q21">
+        <v>-0.63</v>
+      </c>
+      <c r="R21">
+        <v>11.26</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
       <c r="V21" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2110,22 +2467,25 @@
       <c r="Z21">
         <v>2.205901145935059</v>
       </c>
-      <c r="AA21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300533</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-3.63</v>
@@ -2143,7 +2503,7 @@
         <v>58862.87</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22">
         <v>18</v>
@@ -2163,8 +2523,23 @@
       <c r="P22">
         <v>-1.35</v>
       </c>
+      <c r="Q22">
+        <v>2.83</v>
+      </c>
+      <c r="R22">
+        <v>37.43</v>
+      </c>
+      <c r="S22">
+        <v>2.1</v>
+      </c>
       <c r="V22" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2172,22 +2547,25 @@
       <c r="Z22">
         <v>6.485855579376221</v>
       </c>
-      <c r="AA22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300537</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-2.06</v>
@@ -2205,7 +2583,7 @@
         <v>24042.95</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23">
         <v>15</v>
@@ -2225,8 +2603,23 @@
       <c r="P23">
         <v>-0.72</v>
       </c>
+      <c r="Q23">
+        <v>0.24</v>
+      </c>
+      <c r="R23">
+        <v>25.96</v>
+      </c>
+      <c r="S23">
+        <v>3.18</v>
+      </c>
       <c r="V23" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2234,22 +2627,25 @@
       <c r="Z23">
         <v>2.131230115890503</v>
       </c>
-      <c r="AA23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300541</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-1.92</v>
@@ -2267,7 +2663,7 @@
         <v>42143.32</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2287,8 +2683,23 @@
       <c r="P24">
         <v>-1.14</v>
       </c>
+      <c r="Q24">
+        <v>-0.19</v>
+      </c>
+      <c r="R24">
+        <v>16.15</v>
+      </c>
+      <c r="S24">
+        <v>-1.34</v>
+      </c>
       <c r="V24" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2296,22 +2707,25 @@
       <c r="Z24">
         <v>-0.1725120544433594</v>
       </c>
-      <c r="AA24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300548</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>1.74</v>
@@ -2329,7 +2743,7 @@
         <v>178756.02</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2349,8 +2763,23 @@
       <c r="P25">
         <v>0.18</v>
       </c>
+      <c r="Q25">
+        <v>-0.88</v>
+      </c>
+      <c r="R25">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="S25">
+        <v>1.19</v>
+      </c>
       <c r="V25" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2358,22 +2787,25 @@
       <c r="Z25">
         <v>-1.799283862113953</v>
       </c>
-      <c r="AA25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300551</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-1.34</v>
@@ -2391,7 +2823,7 @@
         <v>24955.79</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2411,8 +2843,23 @@
       <c r="P26">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q26">
+        <v>1.11</v>
+      </c>
+      <c r="R26">
+        <v>11.93</v>
+      </c>
+      <c r="S26">
+        <v>1.27</v>
+      </c>
       <c r="V26" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2420,22 +2867,25 @@
       <c r="Z26">
         <v>1.750194072723389</v>
       </c>
-      <c r="AA26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300581</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>2.58</v>
@@ -2453,7 +2903,7 @@
         <v>129337.87</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2473,8 +2923,23 @@
       <c r="P27">
         <v>-0.52</v>
       </c>
+      <c r="Q27">
+        <v>1.2</v>
+      </c>
+      <c r="R27">
+        <v>21.3</v>
+      </c>
+      <c r="S27">
+        <v>0.9</v>
+      </c>
       <c r="V27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2482,22 +2947,25 @@
       <c r="Z27">
         <v>0.6626022458076477</v>
       </c>
-      <c r="AA27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300591</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-0.88</v>
@@ -2515,7 +2983,7 @@
         <v>72585</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28">
         <v>19</v>
@@ -2535,8 +3003,23 @@
       <c r="P28">
         <v>-0.71</v>
       </c>
+      <c r="Q28">
+        <v>1.64</v>
+      </c>
+      <c r="R28">
+        <v>12.77</v>
+      </c>
+      <c r="S28">
+        <v>3.23</v>
+      </c>
       <c r="V28" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2544,22 +3027,25 @@
       <c r="Z28">
         <v>7.809470176696777</v>
       </c>
-      <c r="AA28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300600</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-2.59</v>
@@ -2577,7 +3063,7 @@
         <v>39636.27</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K29">
         <v>16</v>
@@ -2597,8 +3083,23 @@
       <c r="P29">
         <v>-1.32</v>
       </c>
+      <c r="Q29">
+        <v>-0.38</v>
+      </c>
+      <c r="R29">
+        <v>15.96</v>
+      </c>
+      <c r="S29">
+        <v>-1.18</v>
+      </c>
       <c r="V29" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2606,22 +3107,25 @@
       <c r="Z29">
         <v>7.255368232727051</v>
       </c>
-      <c r="AA29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300631</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>20.01</v>
@@ -2639,7 +3143,7 @@
         <v>85525.7</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -2659,8 +3163,23 @@
       <c r="P30">
         <v>3.09</v>
       </c>
+      <c r="Q30">
+        <v>2.73</v>
+      </c>
+      <c r="R30">
+        <v>36.38</v>
+      </c>
+      <c r="S30">
+        <v>8.109999999999999</v>
+      </c>
       <c r="V30" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2668,22 +3187,25 @@
       <c r="Z30">
         <v>9.965400695800781</v>
       </c>
-      <c r="AA30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300644</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>2.16</v>
@@ -2701,7 +3223,7 @@
         <v>96313.39</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2721,8 +3243,23 @@
       <c r="P31">
         <v>-2.39</v>
       </c>
+      <c r="Q31">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="R31">
+        <v>38.96</v>
+      </c>
+      <c r="S31">
+        <v>14.39</v>
+      </c>
       <c r="V31" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2730,22 +3267,25 @@
       <c r="Z31">
         <v>2.419349670410156</v>
       </c>
-      <c r="AA31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300703</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-2.43</v>
@@ -2763,7 +3303,7 @@
         <v>23546.69</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -2783,8 +3323,23 @@
       <c r="P32">
         <v>-0.57</v>
       </c>
+      <c r="Q32">
+        <v>2.87</v>
+      </c>
+      <c r="R32">
+        <v>26.6</v>
+      </c>
+      <c r="S32">
+        <v>5.3</v>
+      </c>
       <c r="V32" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2792,22 +3347,25 @@
       <c r="Z32">
         <v>4.251196384429932</v>
       </c>
-      <c r="AA32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300748</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>4.05</v>
@@ -2825,7 +3383,7 @@
         <v>214490.46</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -2845,8 +3403,23 @@
       <c r="P33">
         <v>0.21</v>
       </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>27.69</v>
+      </c>
+      <c r="S33">
+        <v>3.51</v>
+      </c>
       <c r="V33" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2854,22 +3427,25 @@
       <c r="Z33">
         <v>8.484100341796875</v>
       </c>
-      <c r="AA33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300803</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-2.14</v>
@@ -2887,7 +3463,7 @@
         <v>223714.1</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>16</v>
@@ -2907,8 +3483,23 @@
       <c r="P34">
         <v>-0.26</v>
       </c>
+      <c r="Q34">
+        <v>-2.86</v>
+      </c>
+      <c r="R34">
+        <v>86.48</v>
+      </c>
+      <c r="S34">
+        <v>1.03</v>
+      </c>
       <c r="V34" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2916,22 +3507,25 @@
       <c r="Z34">
         <v>2.783917427062988</v>
       </c>
-      <c r="AA34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300830</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-3.56</v>
@@ -2949,7 +3543,7 @@
         <v>91305.42999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2969,8 +3563,23 @@
       <c r="P35">
         <v>-3.89</v>
       </c>
+      <c r="Q35">
+        <v>-3.05</v>
+      </c>
+      <c r="R35">
+        <v>11.02</v>
+      </c>
+      <c r="S35">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="V35" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2978,22 +3587,25 @@
       <c r="Z35">
         <v>4.065899848937988</v>
       </c>
-      <c r="AA35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300835</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>1.22</v>
@@ -3011,7 +3623,7 @@
         <v>43546</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3031,8 +3643,23 @@
       <c r="P36">
         <v>0.54</v>
       </c>
+      <c r="Q36">
+        <v>1.19</v>
+      </c>
+      <c r="R36">
+        <v>48.9</v>
+      </c>
+      <c r="S36">
+        <v>1.28</v>
+      </c>
       <c r="V36" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -3040,22 +3667,25 @@
       <c r="Z36">
         <v>5.838637828826904</v>
       </c>
-      <c r="AA36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300839</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-3.54</v>
@@ -3073,7 +3703,7 @@
         <v>24903.73</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3093,8 +3723,23 @@
       <c r="P37">
         <v>-0.62</v>
       </c>
+      <c r="Q37">
+        <v>1.82</v>
+      </c>
+      <c r="R37">
+        <v>15.9</v>
+      </c>
+      <c r="S37">
+        <v>12.29</v>
+      </c>
       <c r="V37" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3102,22 +3747,25 @@
       <c r="Z37">
         <v>5.951339721679688</v>
       </c>
-      <c r="AA37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300872</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-1.91</v>
@@ -3135,7 +3783,7 @@
         <v>78293.92</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K38">
         <v>25</v>
@@ -3155,8 +3803,23 @@
       <c r="P38">
         <v>-1.04</v>
       </c>
+      <c r="Q38">
+        <v>0.66</v>
+      </c>
+      <c r="R38">
+        <v>25.26</v>
+      </c>
+      <c r="S38">
+        <v>4.47</v>
+      </c>
       <c r="V38" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3164,22 +3827,25 @@
       <c r="Z38">
         <v>5.339383602142334</v>
       </c>
-      <c r="AA38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300903</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>4.41</v>
@@ -3197,7 +3863,7 @@
         <v>75830.89999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3217,8 +3883,23 @@
       <c r="P39">
         <v>-0.37</v>
       </c>
+      <c r="Q39">
+        <v>-0.71</v>
+      </c>
+      <c r="R39">
+        <v>11.6</v>
+      </c>
+      <c r="S39">
+        <v>2.02</v>
+      </c>
       <c r="V39" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3226,22 +3907,25 @@
       <c r="Z39">
         <v>0.7950904965400696</v>
       </c>
-      <c r="AA39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300950</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-0.86</v>
@@ -3259,7 +3943,7 @@
         <v>56325.72</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -3279,8 +3963,23 @@
       <c r="P40">
         <v>-0.53</v>
       </c>
+      <c r="Q40">
+        <v>-6.4</v>
+      </c>
+      <c r="R40">
+        <v>32.76</v>
+      </c>
+      <c r="S40">
+        <v>-2.53</v>
+      </c>
       <c r="V40" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3288,22 +3987,25 @@
       <c r="Z40">
         <v>4.301724433898926</v>
       </c>
-      <c r="AA40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301012</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-6.06</v>
@@ -3321,7 +4023,7 @@
         <v>68047.83</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -3341,8 +4043,23 @@
       <c r="P41">
         <v>-0.15</v>
       </c>
+      <c r="Q41">
+        <v>2.99</v>
+      </c>
+      <c r="R41">
+        <v>24.47</v>
+      </c>
+      <c r="S41">
+        <v>2.56</v>
+      </c>
       <c r="V41" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3350,22 +4067,25 @@
       <c r="Z41">
         <v>2.177820920944214</v>
       </c>
-      <c r="AA41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301132</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>0.38</v>
@@ -3383,7 +4103,7 @@
         <v>89580.77</v>
       </c>
       <c r="J42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3403,8 +4123,23 @@
       <c r="P42">
         <v>-5.28</v>
       </c>
+      <c r="Q42">
+        <v>-2.91</v>
+      </c>
+      <c r="R42">
+        <v>39.18</v>
+      </c>
+      <c r="S42">
+        <v>-2.12</v>
+      </c>
       <c r="V42" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3412,22 +4147,25 @@
       <c r="Z42">
         <v>8.159885406494141</v>
       </c>
-      <c r="AA42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301141</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>4.65</v>
@@ -3445,7 +4183,7 @@
         <v>105463.19</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K43">
         <v>16</v>
@@ -3465,8 +4203,23 @@
       <c r="P43">
         <v>-0.16</v>
       </c>
+      <c r="Q43">
+        <v>-3.14</v>
+      </c>
+      <c r="R43">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="S43">
+        <v>-1.22</v>
+      </c>
       <c r="V43" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3474,22 +4227,25 @@
       <c r="Z43">
         <v>2.554655790328979</v>
       </c>
-      <c r="AA43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301165</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0.23</v>
@@ -3507,7 +4263,7 @@
         <v>57386.02</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3527,8 +4283,23 @@
       <c r="P44">
         <v>-0.05</v>
       </c>
+      <c r="Q44">
+        <v>-1.44</v>
+      </c>
+      <c r="R44">
+        <v>63.22</v>
+      </c>
+      <c r="S44">
+        <v>-1.59</v>
+      </c>
       <c r="V44" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3536,22 +4307,25 @@
       <c r="Z44">
         <v>4.099792957305908</v>
       </c>
-      <c r="AA44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301176</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-1.85</v>
@@ -3569,7 +4343,7 @@
         <v>42983.4</v>
       </c>
       <c r="J45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K45">
         <v>21</v>
@@ -3589,8 +4363,23 @@
       <c r="P45">
         <v>-2.09</v>
       </c>
+      <c r="Q45">
+        <v>1.58</v>
+      </c>
+      <c r="R45">
+        <v>34.47</v>
+      </c>
+      <c r="S45">
+        <v>-0.12</v>
+      </c>
       <c r="V45" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3598,22 +4387,25 @@
       <c r="Z45">
         <v>2.347418785095215</v>
       </c>
-      <c r="AA45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301183</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-2.81</v>
@@ -3631,7 +4423,7 @@
         <v>52547.64</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -3651,8 +4443,23 @@
       <c r="P46">
         <v>-0.76</v>
       </c>
+      <c r="Q46">
+        <v>-1.46</v>
+      </c>
+      <c r="R46">
+        <v>75.94</v>
+      </c>
+      <c r="S46">
+        <v>0.7</v>
+      </c>
       <c r="V46" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3660,22 +4467,25 @@
       <c r="Z46">
         <v>4.602367401123047</v>
       </c>
-      <c r="AA46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301217</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>4.94</v>
@@ -3693,7 +4503,7 @@
         <v>137303.82</v>
       </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -3713,8 +4523,23 @@
       <c r="P47">
         <v>-0.6</v>
       </c>
+      <c r="Q47">
+        <v>-1.81</v>
+      </c>
+      <c r="R47">
+        <v>21.98</v>
+      </c>
+      <c r="S47">
+        <v>0.41</v>
+      </c>
       <c r="V47" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3722,22 +4547,25 @@
       <c r="Z47">
         <v>2.937151670455933</v>
       </c>
-      <c r="AA47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301265</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>13.61</v>
@@ -3755,7 +4583,7 @@
         <v>46913.22</v>
       </c>
       <c r="J48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3775,8 +4603,23 @@
       <c r="P48">
         <v>0.78</v>
       </c>
+      <c r="Q48">
+        <v>-5.03</v>
+      </c>
+      <c r="R48">
+        <v>13.23</v>
+      </c>
+      <c r="S48">
+        <v>-0.97</v>
+      </c>
       <c r="V48" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3784,22 +4627,25 @@
       <c r="Z48">
         <v>3.753284215927124</v>
       </c>
-      <c r="AA48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301312</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-1.68</v>
@@ -3817,7 +4663,7 @@
         <v>19309.78</v>
       </c>
       <c r="J49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -3837,8 +4683,23 @@
       <c r="P49">
         <v>-0.92</v>
       </c>
+      <c r="Q49">
+        <v>2.88</v>
+      </c>
+      <c r="R49">
+        <v>44.3</v>
+      </c>
+      <c r="S49">
+        <v>3.48</v>
+      </c>
       <c r="V49" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3846,22 +4707,25 @@
       <c r="Z49">
         <v>2.263978481292725</v>
       </c>
-      <c r="AA49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301345</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-1.54</v>
@@ -3879,7 +4743,7 @@
         <v>23189.21</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K50">
         <v>14</v>
@@ -3899,8 +4763,23 @@
       <c r="P50">
         <v>-0.36</v>
       </c>
+      <c r="Q50">
+        <v>-1.77</v>
+      </c>
+      <c r="R50">
+        <v>138.67</v>
+      </c>
+      <c r="S50">
+        <v>-0.6</v>
+      </c>
       <c r="V50" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3908,22 +4787,25 @@
       <c r="Z50">
         <v>3.56095290184021</v>
       </c>
-      <c r="AA50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301357</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>0.83</v>
@@ -3941,7 +4823,7 @@
         <v>60179.61</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -3961,8 +4843,23 @@
       <c r="P51">
         <v>-2.41</v>
       </c>
+      <c r="Q51">
+        <v>-0.71</v>
+      </c>
+      <c r="R51">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="S51">
+        <v>-0.71</v>
+      </c>
       <c r="V51" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -3970,22 +4867,25 @@
       <c r="Z51">
         <v>1.086567163467407</v>
       </c>
-      <c r="AA51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301377</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>3.83</v>
@@ -4003,7 +4903,7 @@
         <v>48771.9</v>
       </c>
       <c r="J52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -4023,8 +4923,23 @@
       <c r="P52">
         <v>-0.17</v>
       </c>
+      <c r="Q52">
+        <v>0.04</v>
+      </c>
+      <c r="R52">
+        <v>45.6</v>
+      </c>
+      <c r="S52">
+        <v>0.09</v>
+      </c>
       <c r="V52" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4032,22 +4947,25 @@
       <c r="Z52">
         <v>8.71319580078125</v>
       </c>
-      <c r="AA52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301388</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>2.87</v>
@@ -4065,7 +4983,7 @@
         <v>37543.89</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53">
         <v>10</v>
@@ -4085,8 +5003,23 @@
       <c r="P53">
         <v>1.06</v>
       </c>
+      <c r="Q53">
+        <v>0.05</v>
+      </c>
+      <c r="R53">
+        <v>40.44</v>
+      </c>
+      <c r="S53">
+        <v>2.64</v>
+      </c>
       <c r="V53" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4094,22 +5027,25 @@
       <c r="Z53">
         <v>4.832772731781006</v>
       </c>
-      <c r="AA53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301389</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>2.33</v>
@@ -4127,7 +5063,7 @@
         <v>64159.79</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -4147,8 +5083,23 @@
       <c r="P54">
         <v>0.91</v>
       </c>
+      <c r="Q54">
+        <v>2.02</v>
+      </c>
+      <c r="R54">
+        <v>34.18</v>
+      </c>
+      <c r="S54">
+        <v>1.12</v>
+      </c>
       <c r="V54" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4156,22 +5107,25 @@
       <c r="Z54">
         <v>2.941904783248901</v>
       </c>
-      <c r="AA54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301421</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-0.64</v>
@@ -4189,7 +5143,7 @@
         <v>23995.59</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>20</v>
@@ -4209,8 +5163,23 @@
       <c r="P55">
         <v>-0.06</v>
       </c>
+      <c r="Q55">
+        <v>-1.47</v>
+      </c>
+      <c r="R55">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="S55">
+        <v>4.1</v>
+      </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4218,22 +5187,25 @@
       <c r="Z55">
         <v>0.9727492332458496</v>
       </c>
-      <c r="AA55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301511</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-3.41</v>
@@ -4251,7 +5223,7 @@
         <v>81689.52</v>
       </c>
       <c r="J56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K56">
         <v>19</v>
@@ -4271,8 +5243,23 @@
       <c r="P56">
         <v>0.45</v>
       </c>
+      <c r="Q56">
+        <v>13.16</v>
+      </c>
+      <c r="R56">
+        <v>29.36</v>
+      </c>
+      <c r="S56">
+        <v>15.27</v>
+      </c>
       <c r="V56" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4280,22 +5267,25 @@
       <c r="Z56">
         <v>6.197153568267822</v>
       </c>
-      <c r="AA56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301526</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-0.6</v>
@@ -4313,7 +5303,7 @@
         <v>58469.66</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -4333,8 +5323,23 @@
       <c r="P57">
         <v>-0.19</v>
       </c>
+      <c r="Q57">
+        <v>2.23</v>
+      </c>
+      <c r="R57">
+        <v>5.09</v>
+      </c>
+      <c r="S57">
+        <v>2.83</v>
+      </c>
       <c r="V57" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4342,22 +5347,25 @@
       <c r="Z57">
         <v>3.802828073501587</v>
       </c>
-      <c r="AA57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688062</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>-3.86</v>
@@ -4375,7 +5383,7 @@
         <v>76618.36</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K58">
         <v>12</v>
@@ -4395,8 +5403,23 @@
       <c r="P58">
         <v>-2.28</v>
       </c>
+      <c r="Q58">
+        <v>-1.1</v>
+      </c>
+      <c r="R58">
+        <v>36.56</v>
+      </c>
+      <c r="S58">
+        <v>1.87</v>
+      </c>
       <c r="V58" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4404,22 +5427,25 @@
       <c r="Z58">
         <v>1.791971445083618</v>
       </c>
-      <c r="AA58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688117</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>1.95</v>
@@ -4437,7 +5463,7 @@
         <v>25204.35</v>
       </c>
       <c r="J59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -4457,8 +5483,23 @@
       <c r="P59">
         <v>0.17</v>
       </c>
+      <c r="Q59">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R59">
+        <v>44.19</v>
+      </c>
+      <c r="S59">
+        <v>9.98</v>
+      </c>
       <c r="V59" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4466,22 +5507,25 @@
       <c r="Z59">
         <v>1.167556524276733</v>
       </c>
-      <c r="AA59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688202</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>2.66</v>
@@ -4499,7 +5543,7 @@
         <v>66770.44</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -4519,8 +5563,23 @@
       <c r="P60">
         <v>0.1</v>
       </c>
+      <c r="Q60">
+        <v>-1.62</v>
+      </c>
+      <c r="R60">
+        <v>59.55</v>
+      </c>
+      <c r="S60">
+        <v>-1.24</v>
+      </c>
       <c r="V60" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4528,22 +5587,25 @@
       <c r="Z60">
         <v>0.04969856515526772</v>
       </c>
-      <c r="AA60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>688221</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>4.29</v>
@@ -4561,7 +5623,7 @@
         <v>39244.64</v>
       </c>
       <c r="J61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K61">
         <v>10</v>
@@ -4581,8 +5643,23 @@
       <c r="P61">
         <v>-0.27</v>
       </c>
+      <c r="Q61">
+        <v>3.79</v>
+      </c>
+      <c r="R61">
+        <v>24.67</v>
+      </c>
+      <c r="S61">
+        <v>15.39</v>
+      </c>
       <c r="V61" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4590,22 +5667,25 @@
       <c r="Z61">
         <v>0.3760879039764404</v>
       </c>
-      <c r="AA61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688222</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>2.24</v>
@@ -4623,7 +5703,7 @@
         <v>122270.71</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4643,8 +5723,23 @@
       <c r="P62">
         <v>-1.14</v>
       </c>
+      <c r="Q62">
+        <v>6.38</v>
+      </c>
+      <c r="R62">
+        <v>24.2</v>
+      </c>
+      <c r="S62">
+        <v>10.3</v>
+      </c>
       <c r="V62" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4652,22 +5747,25 @@
       <c r="Z62">
         <v>3.570822954177856</v>
       </c>
-      <c r="AA62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>688313</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>2.83</v>
@@ -4685,7 +5783,7 @@
         <v>147907.88</v>
       </c>
       <c r="J63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K63">
         <v>23</v>
@@ -4705,8 +5803,23 @@
       <c r="P63">
         <v>0.2</v>
       </c>
+      <c r="Q63">
+        <v>-1.03</v>
+      </c>
+      <c r="R63">
+        <v>54.62</v>
+      </c>
+      <c r="S63">
+        <v>1.69</v>
+      </c>
       <c r="V63" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4714,22 +5827,25 @@
       <c r="Z63">
         <v>2.141577482223511</v>
       </c>
-      <c r="AA63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>688317</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>-6.13</v>
@@ -4747,7 +5863,7 @@
         <v>23899.74</v>
       </c>
       <c r="J64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -4767,8 +5883,23 @@
       <c r="P64">
         <v>-0.62</v>
       </c>
+      <c r="Q64">
+        <v>2.64</v>
+      </c>
+      <c r="R64">
+        <v>23.8</v>
+      </c>
+      <c r="S64">
+        <v>3.57</v>
+      </c>
       <c r="V64" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4776,22 +5907,25 @@
       <c r="Z64">
         <v>4.71983003616333</v>
       </c>
-      <c r="AA64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>688499</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>5.26</v>
@@ -4809,7 +5943,7 @@
         <v>64662.69</v>
       </c>
       <c r="J65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K65">
         <v>24</v>
@@ -4829,8 +5963,23 @@
       <c r="P65">
         <v>-0.1</v>
       </c>
+      <c r="Q65">
+        <v>1.6</v>
+      </c>
+      <c r="R65">
+        <v>50.88</v>
+      </c>
+      <c r="S65">
+        <v>10.99</v>
+      </c>
       <c r="V65" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4838,22 +5987,25 @@
       <c r="Z65">
         <v>5.126287460327148</v>
       </c>
-      <c r="AA65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688668</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>1.44</v>
@@ -4871,7 +6023,7 @@
         <v>40663.31</v>
       </c>
       <c r="J66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -4891,8 +6043,23 @@
       <c r="P66">
         <v>-0.01</v>
       </c>
+      <c r="Q66">
+        <v>10.11</v>
+      </c>
+      <c r="R66">
+        <v>79</v>
+      </c>
+      <c r="S66">
+        <v>9.1</v>
+      </c>
       <c r="V66" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
       </c>
       <c r="Y66">
         <v>1</v>
@@ -4900,8 +6067,11 @@
       <c r="Z66">
         <v>9.477663040161133</v>
       </c>
-      <c r="AA66" t="s">
-        <v>136</v>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
